--- a/web/docs/01-rubriques/_09-grilles/Grille-Code-Serveur.xlsx
+++ b/web/docs/01-rubriques/_09-grilles/Grille-Code-Serveur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorisdeguet/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po.brillant\Desktop\projet-prog\web\docs\01-rubriques\_09-grilles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D83BF-0015-4841-8349-1C0F580775DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD7572-288A-4E5E-AB00-D355DC99631E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31485" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code serveur" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Très bien</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Nom</t>
+  </si>
+  <si>
+    <t>Contrôle d'accès</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -604,38 +639,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,23 +958,23 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y228"/>
+  <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" customWidth="1"/>
-    <col min="2" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="25" width="13.5" customWidth="1"/>
-    <col min="26" max="26" width="18.5" customWidth="1"/>
+    <col min="6" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -979,10 +982,10 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1002,14 +1005,14 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1029,7 +1032,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1037,8 +1040,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1058,14 +1061,14 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1085,14 +1088,14 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1112,7 +1115,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1139,14 +1142,14 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1166,14 +1169,14 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1193,14 +1196,14 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1220,14 +1223,14 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1247,14 +1250,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1274,7 +1277,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1301,14 +1304,14 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1330,14 +1333,14 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1359,14 +1362,14 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1388,72 +1391,72 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1475,14 +1478,14 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1504,14 +1507,14 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1533,72 +1536,72 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1620,14 +1623,14 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1649,14 +1652,14 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1678,14 +1681,14 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1707,14 +1710,14 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1736,14 +1739,14 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1765,51 +1768,51 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>8</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1831,12 +1834,14 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1858,47 +1863,41 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:25" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="24">
-        <v>10</v>
-      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1920,12 +1919,18 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="17"/>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="42">
+        <v>10</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1947,12 +1952,12 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1974,18 +1979,12 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="24">
-        <v>8</v>
-      </c>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2007,12 +2006,18 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="17"/>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42">
+        <v>8</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2034,12 +2039,12 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2061,18 +2066,12 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="24">
-        <v>6</v>
-      </c>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2094,12 +2093,18 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="17"/>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="42">
+        <v>6</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2121,12 +2126,12 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2148,18 +2153,12 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="24">
-        <v>3</v>
-      </c>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2181,12 +2180,18 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="17"/>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="42">
+        <v>3</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2208,12 +2213,12 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2235,18 +2240,12 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="24">
-        <v>0</v>
-      </c>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2268,12 +2267,18 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="17"/>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="42">
+        <v>0</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2295,12 +2300,12 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2322,7 +2327,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2349,7 +2354,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2376,7 +2381,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2403,7 +2408,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2430,7 +2435,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2457,7 +2462,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2484,7 +2489,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2511,7 +2516,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2538,7 +2543,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2565,7 +2570,7 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2592,7 +2597,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2619,7 +2624,7 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2646,7 +2651,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2673,7 +2678,7 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2700,7 +2705,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2727,7 +2732,7 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2754,7 +2759,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2781,7 +2786,7 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2808,7 +2813,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2835,7 +2840,7 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2862,7 +2867,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2889,7 +2894,7 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2916,7 +2921,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2943,7 +2948,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2970,7 +2975,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2997,7 +3002,7 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3024,7 +3029,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3051,7 +3056,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3078,7 +3083,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3105,7 +3110,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3132,7 +3137,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3159,7 +3164,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3186,7 +3191,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3213,7 +3218,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3240,7 +3245,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3267,7 +3272,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3294,7 +3299,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3321,7 +3326,7 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3348,7 +3353,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3375,7 +3380,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3402,7 +3407,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3429,7 +3434,7 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3456,7 +3461,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3483,7 +3488,7 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3510,7 +3515,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3537,7 +3542,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3564,7 +3569,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3591,7 +3596,7 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3618,7 +3623,7 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3645,7 +3650,7 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3672,7 +3677,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3699,7 +3704,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3726,7 +3731,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3753,7 +3758,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3780,7 +3785,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3807,7 +3812,7 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3834,7 +3839,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3861,7 +3866,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3888,7 +3893,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3915,7 +3920,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3942,7 +3947,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3969,7 +3974,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3996,7 +4001,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4023,7 +4028,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4050,7 +4055,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4077,7 +4082,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4104,7 +4109,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4131,7 +4136,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4158,7 +4163,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4185,7 +4190,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4212,7 +4217,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4239,7 +4244,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4266,7 +4271,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4293,7 +4298,7 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4320,7 +4325,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4347,7 +4352,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4374,7 +4379,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4401,7 +4406,7 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4428,7 +4433,7 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4455,7 +4460,7 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4482,7 +4487,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4509,7 +4514,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4536,7 +4541,7 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4563,7 +4568,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4590,7 +4595,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4617,7 +4622,7 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4644,7 +4649,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4671,7 +4676,7 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4698,7 +4703,7 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4725,7 +4730,7 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4752,7 +4757,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4779,7 +4784,7 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4806,7 +4811,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4833,7 +4838,7 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4860,7 +4865,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4887,7 +4892,7 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4914,7 +4919,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4941,7 +4946,7 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4968,7 +4973,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4995,7 +5000,7 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5022,7 +5027,7 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5049,7 +5054,7 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5076,7 +5081,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5103,7 +5108,7 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5130,7 +5135,7 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5157,7 +5162,7 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5184,7 +5189,7 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5211,7 +5216,7 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5238,7 +5243,7 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5265,7 +5270,7 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5292,7 +5297,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5319,7 +5324,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5346,7 +5351,7 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5373,7 +5378,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5400,7 +5405,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5427,7 +5432,7 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5454,7 +5459,7 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5481,7 +5486,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5508,7 +5513,7 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5535,7 +5540,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5562,7 +5567,7 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5589,7 +5594,7 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5616,7 +5621,7 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5643,7 +5648,7 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5670,7 +5675,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5697,7 +5702,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5724,7 +5729,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5751,7 +5756,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5778,7 +5783,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5805,7 +5810,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5832,7 +5837,7 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5859,7 +5864,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5886,7 +5891,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5913,7 +5918,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5940,7 +5945,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5967,7 +5972,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5994,7 +5999,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6021,7 +6026,7 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6048,7 +6053,7 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6075,7 +6080,7 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6102,7 +6107,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6129,7 +6134,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6156,7 +6161,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6183,7 +6188,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6210,7 +6215,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6237,7 +6242,7 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6264,7 +6269,7 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6291,7 +6296,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6318,7 +6323,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6345,7 +6350,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6372,7 +6377,7 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6399,7 +6404,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6426,7 +6431,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6453,7 +6458,7 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6480,7 +6485,7 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6507,7 +6512,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6534,7 +6539,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6561,7 +6566,7 @@
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6588,7 +6593,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6615,7 +6620,7 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6642,7 +6647,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6669,7 +6674,7 @@
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6696,7 +6701,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6723,7 +6728,7 @@
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6750,7 +6755,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6777,7 +6782,7 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6804,7 +6809,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -6831,7 +6836,7 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -6858,7 +6863,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -6885,7 +6890,7 @@
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -6912,7 +6917,7 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -6939,7 +6944,7 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -6966,7 +6971,7 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -6993,7 +6998,7 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7020,7 +7025,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
     </row>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7047,7 +7052,7 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
     </row>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7074,7 +7079,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
     </row>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7101,7 +7106,7 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
     </row>
-    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7128,7 +7133,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
     </row>
-    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7155,7 +7160,7 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
     </row>
-    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7182,7 +7187,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
     </row>
-    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7209,34 +7214,61 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
     </row>
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+      <c r="X229" s="4"/>
+      <c r="Y229" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B7:E11"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B18:E21"/>
+    <mergeCell ref="B23:E29"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E11"/>
-    <mergeCell ref="B13:E15"/>
-    <mergeCell ref="B17:E20"/>
-    <mergeCell ref="B22:E28"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -7244,6 +7276,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100070494664E5686429FA47D51C8E559AA" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3f58441d54091c1a6536dd6343d48bcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="718f4f50-f530-42f8-95e5-e068197b34fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae2927f118e3df642294cfcfe626b4a4" ns2:_="">
     <xsd:import namespace="718f4f50-f530-42f8-95e5-e068197b34fa"/>
@@ -7387,22 +7434,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC0E22D-4529-46F1-91FE-F10863CC02D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="718f4f50-f530-42f8-95e5-e068197b34fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC6A08E-4238-4CCF-A1BB-131692ECC5BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D187B6-3484-4443-BCD8-208F493D637F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7418,28 +7474,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC6A08E-4238-4CCF-A1BB-131692ECC5BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC0E22D-4529-46F1-91FE-F10863CC02D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="718f4f50-f530-42f8-95e5-e068197b34fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>